--- a/doc/carrier/carrier_board_BOM.xlsx
+++ b/doc/carrier/carrier_board_BOM.xlsx
@@ -15,14 +15,14 @@
     <sheet name="carrier_board_BOM" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">carrier_board_BOM!$A$1:$J$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">carrier_board_BOM!$A$1:$J$44</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="196">
   <si>
     <t>Qty</t>
   </si>
@@ -48,9 +48,6 @@
     <t>X2, X4, X6</t>
   </si>
   <si>
-    <t>282834-8</t>
-  </si>
-  <si>
     <t>X1, X3, X5</t>
   </si>
   <si>
@@ -123,12 +120,6 @@
     <t>RESISTOR, American symbol</t>
   </si>
   <si>
-    <t>SRH05S05</t>
-  </si>
-  <si>
-    <t>SRH05</t>
-  </si>
-  <si>
     <t>U13</t>
   </si>
   <si>
@@ -156,12 +147,6 @@
     <t>R0402</t>
   </si>
   <si>
-    <t>R25, R27</t>
-  </si>
-  <si>
-    <t>R3, R9, R15</t>
-  </si>
-  <si>
     <t>100n</t>
   </si>
   <si>
@@ -183,9 +168,6 @@
     <t>C0603</t>
   </si>
   <si>
-    <t>C1, C2, C3</t>
-  </si>
-  <si>
     <t>100u</t>
   </si>
   <si>
@@ -210,9 +192,6 @@
     <t>R28, R29</t>
   </si>
   <si>
-    <t>10u</t>
-  </si>
-  <si>
     <t>C-EUC0805</t>
   </si>
   <si>
@@ -222,9 +201,6 @@
     <t>C7, C8</t>
   </si>
   <si>
-    <t>120.7k</t>
-  </si>
-  <si>
     <t>R21, R24</t>
   </si>
   <si>
@@ -237,9 +213,6 @@
     <t>1k</t>
   </si>
   <si>
-    <t>R1, R2, R7, R8, R13, R14</t>
-  </si>
-  <si>
     <t>R-US_R0805</t>
   </si>
   <si>
@@ -270,9 +243,6 @@
     <t>R31, R32</t>
   </si>
   <si>
-    <t>227.1k</t>
-  </si>
-  <si>
     <t>R20, R23</t>
   </si>
   <si>
@@ -285,24 +255,12 @@
     <t>F4, F5</t>
   </si>
   <si>
-    <t>4M</t>
-  </si>
-  <si>
     <t>R19, R22</t>
   </si>
   <si>
-    <t>5.0SMDJ40CA</t>
-  </si>
-  <si>
-    <t>DIOM794X590X262L114X305N</t>
-  </si>
-  <si>
     <t>D4, D5</t>
   </si>
   <si>
-    <t>Tvs Diode, 5kw, 40v, Bidir, Do-214ab</t>
-  </si>
-  <si>
     <t>50k</t>
   </si>
   <si>
@@ -342,9 +300,6 @@
     <t>U12</t>
   </si>
   <si>
-    <t>SIJ438DP</t>
-  </si>
-  <si>
     <t>SM03B-GHS-TB</t>
   </si>
   <si>
@@ -372,27 +327,12 @@
     <t>Total</t>
   </si>
   <si>
-    <t>https://katalog.we-online.de/pbs/datasheet/885012206095.pdf</t>
-  </si>
-  <si>
     <t>GCM155R71H102KA37D</t>
   </si>
   <si>
     <t>http://psearch.en.murata.com/capacitor/product/GCM155R71H102KA37%23.pdf</t>
   </si>
   <si>
-    <t>04025C104KAT2A</t>
-  </si>
-  <si>
-    <t>http://datasheets.avx.com/X7RDielectric.pdf</t>
-  </si>
-  <si>
-    <t>CL21A106KPFNNNG</t>
-  </si>
-  <si>
-    <t>http://www.samsungsem.com/kr/front/downloadcms.do?path=/kr/support/product-search/mlcc/__icsFiles/afieldfile/2016/01/15&amp;fileName=Data%20sheet_CL21A106KPFNNNG.pdf</t>
-  </si>
-  <si>
     <t>EEU-FR1J101</t>
   </si>
   <si>
@@ -411,9 +351,6 @@
     <t>http://www.mccsemi.com/up_pdf/BZT52C2V4~BZT52C43(500mW)(SOD-123).pdf</t>
   </si>
   <si>
-    <t>http://www.littelfuse.com/products/tvs-diodes/surface-mount/~/media/electronics/datasheets/tvs_diodes/littelfuse_tvs_diode_5_0smdj_datasheet.pdf.pdf</t>
-  </si>
-  <si>
     <t>http://www.keyelco.com/product-pdf.cfm?p=14224</t>
   </si>
   <si>
@@ -423,42 +360,18 @@
     <t>https://industrial.panasonic.com/cdbs/www-data/pdf/AFA0000/AFA0000C7.pdf</t>
   </si>
   <si>
-    <t>PREC003DFAN-RC</t>
-  </si>
-  <si>
     <t>https://s3.amazonaws.com/catalogspreads-pdf/PAGE110-111%20.100%20MALE%20HDR%20ST.pdf</t>
   </si>
   <si>
-    <t>PREC004DFAN-RC</t>
-  </si>
-  <si>
-    <t>GEC02SGSN-M89</t>
-  </si>
-  <si>
-    <t>https://s3.amazonaws.com/catalogspreads-pdf/PAGE108-109%20.100%20MALE%20HDR.pdf</t>
-  </si>
-  <si>
-    <t>http://optoelectronics.liteon.com/upload/download/DS-22-98-0004/LTST-C150GKT.pdf</t>
-  </si>
-  <si>
-    <t>Q1, Q2, Q3, Q4, Q5, Q6, Q7</t>
-  </si>
-  <si>
     <t>POWERPACK_SO8L_SINGLE</t>
   </si>
   <si>
-    <t>http://www.vishay.com/docs/69684/sij438dp.pdf</t>
-  </si>
-  <si>
     <t>2k</t>
   </si>
   <si>
     <t>RC0603FR-071KL</t>
   </si>
   <si>
-    <t>RC0402FR-07100KL</t>
-  </si>
-  <si>
     <t>RC0402FR-07255KL</t>
   </si>
   <si>
@@ -468,18 +381,6 @@
     <t>http://www.yageo.com/documents/recent/PYu-RC_Group_51_RoHS_L_9.pdf</t>
   </si>
   <si>
-    <t>RMCF0402FT3M92</t>
-  </si>
-  <si>
-    <t>https://www.seielect.com/Catalog/SEI-RMCF_RMCP.pdf</t>
-  </si>
-  <si>
-    <t>SIJ438DP-T1-GE3</t>
-  </si>
-  <si>
-    <t>LTST-C150GKT</t>
-  </si>
-  <si>
     <t>RC0402FR-07124KL</t>
   </si>
   <si>
@@ -537,9 +438,6 @@
     <t>http://www.microchip.com/mymicrochip/filehandler.aspx?ddocname=en561044</t>
   </si>
   <si>
-    <t>https://www.xppower.com/Portals/0/pdfs/SF_SRH05.pdf</t>
-  </si>
-  <si>
     <t>INA226AIDGSR</t>
   </si>
   <si>
@@ -549,9 +447,6 @@
     <t>https://www.phoenixcontact.com/online/portal/us?uri=pxc-oc-itemdetail:pid=1730502&amp;library=usen&amp;tab=1</t>
   </si>
   <si>
-    <t>https://www.te.com/commerce/DocumentDelivery/DDEController?Action=srchrtrv&amp;DocNm=282834&amp;DocType=Customer+Drawing&amp;DocLang=English</t>
-  </si>
-  <si>
     <t>1926155-2</t>
   </si>
   <si>
@@ -589,6 +484,132 @@
   </si>
   <si>
     <t>Headers for Teensy</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>BSS123</t>
+  </si>
+  <si>
+    <t>SOT23</t>
+  </si>
+  <si>
+    <t>DMN6075S-7</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/DMN6075S.pdf</t>
+  </si>
+  <si>
+    <t>C1005X7R1H104K050BB</t>
+  </si>
+  <si>
+    <t>https://product.tdk.com/info/en/documents/chara_sheet/C1005X7R1H104K050BB.pdf</t>
+  </si>
+  <si>
+    <t>CRCW04024M12FKED</t>
+  </si>
+  <si>
+    <t>http://www.vishay.com/docs/20035/dcrcwe3.pdf</t>
+  </si>
+  <si>
+    <t>4.12M</t>
+  </si>
+  <si>
+    <t>Q1, Q2, Q3</t>
+  </si>
+  <si>
+    <t>Q4, Q5, Q6, Q7</t>
+  </si>
+  <si>
+    <t>SQJ407EP</t>
+  </si>
+  <si>
+    <t>SI7145DP</t>
+  </si>
+  <si>
+    <t>SO-8-POWERPACK</t>
+  </si>
+  <si>
+    <t>R1, R2, R7, R8, R13, R14, R35, R36</t>
+  </si>
+  <si>
+    <t>C1, C2, C3, C9, C10</t>
+  </si>
+  <si>
+    <t>SMBJ30CA</t>
+  </si>
+  <si>
+    <t>DO214AA</t>
+  </si>
+  <si>
+    <t>https://www.littelfuse.com/~/media/electronics/datasheets/tvs_diodes/littelfuse_tvs_diode_smbj_datasheet.pdf.pdf</t>
+  </si>
+  <si>
+    <t>284391-6</t>
+  </si>
+  <si>
+    <t>https://www.te.com/commerce/DocumentDelivery/DDEController?Action=srchrtrv&amp;DocNm=284391&amp;DocType=Customer+Drawing&amp;DocLang=English</t>
+  </si>
+  <si>
+    <t>0.1"_LINEAR_REGULATOR_REPLACEMENT</t>
+  </si>
+  <si>
+    <t>VX7805-500</t>
+  </si>
+  <si>
+    <t>https://www.cui.com/product/resource/digikeypdf/vx78-500.pdf</t>
+  </si>
+  <si>
+    <t>210k</t>
+  </si>
+  <si>
+    <t>150k</t>
+  </si>
+  <si>
+    <t>R3, R9, R15, R25, R27</t>
+  </si>
+  <si>
+    <t>PREC003DAAN-RC</t>
+  </si>
+  <si>
+    <t>PREC004DAAN-RC</t>
+  </si>
+  <si>
+    <t>TSM-102-01-T-SH</t>
+  </si>
+  <si>
+    <t>http://suddendocs.samtec.com/catalog_english/tsm.pdf</t>
+  </si>
+  <si>
+    <t>150060VS55040</t>
+  </si>
+  <si>
+    <t>https://katalog.we-online.de/pbs/datasheet/150060VS55040.pdf</t>
+  </si>
+  <si>
+    <t>SQJ407EP-T1_GE3</t>
+  </si>
+  <si>
+    <t>http://www.vishay.com/docs/62806/sqj407ep.pdf</t>
+  </si>
+  <si>
+    <t>SI7145DP-T1-GE3</t>
+  </si>
+  <si>
+    <t>http://www.vishay.com/docs/64814/si7145dp.pdf</t>
+  </si>
+  <si>
+    <t>CL21F104ZBCNNNC</t>
+  </si>
+  <si>
+    <t>http://www.samsungsem.com/kr/front/downloadcms.do?path=/kr/support/product-search/mlcc/__icsFiles/afieldfile/2014/11/05&amp;fileName=C_CL21F104ZBCNNNC.pdf</t>
+  </si>
+  <si>
+    <t>CL10F104ZB8NNNC</t>
+  </si>
+  <si>
+    <t>http://www.samsungsem.com/global/front/downloadcms.do?path=%2F%2Fglobal%2F%2Fsupport%2F%2Fproduct-search%2F%2Fmlcc%2F%2F__icsFiles%2F%2Fafieldfile%2F%2F2014%2F%2F11%2F%2F05&amp;fileName=C_CL10F104ZB8NNNC.pdf</t>
   </si>
 </sst>
 </file>
@@ -597,7 +618,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.000"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -1102,10 +1123,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1428,22 +1449,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="5" width="28.5703125" customWidth="1"/>
     <col min="6" max="6" width="55.140625" customWidth="1"/>
     <col min="7" max="7" width="21" style="2" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" style="2" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" style="8"/>
+    <col min="9" max="10" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1466,49 +1487,49 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>115</v>
+        <v>98</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
         <v>46</v>
       </c>
-      <c r="D2" t="s">
-        <v>51</v>
-      </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="4">
-        <v>885012206095</v>
+        <v>45</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I2" s="8">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J2" s="8">
+        <v>195</v>
+      </c>
+      <c r="I2" s="7">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="J2" s="7">
         <f>A2*I2</f>
-        <v>0.42000000000000004</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1516,31 +1537,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="I3" s="8">
+        <v>102</v>
+      </c>
+      <c r="I3" s="7">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J3" s="8">
-        <f t="shared" ref="J3:J43" si="0">A3*I3</f>
+      <c r="J3" s="7">
+        <f t="shared" ref="J3:J44" si="0">A3*I3</f>
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -1549,32 +1570,32 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="I4" s="8">
-        <v>0.31</v>
-      </c>
-      <c r="J4" s="8">
-        <f t="shared" si="0"/>
-        <v>0.31</v>
+        <v>160</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="J4" s="7">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1582,30 +1603,30 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="I5" s="8">
+        <v>104</v>
+      </c>
+      <c r="I5" s="7">
         <v>0.91</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="7">
         <f t="shared" si="0"/>
         <v>0.91</v>
       </c>
@@ -1615,32 +1636,32 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0.21</v>
-      </c>
-      <c r="J6" s="8">
-        <f t="shared" si="0"/>
-        <v>0.42</v>
+        <v>193</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1648,27 +1669,27 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="E7" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="I7" s="8">
+        <v>106</v>
+      </c>
+      <c r="I7" s="7">
         <v>0.69</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="7">
         <f t="shared" si="0"/>
         <v>1.38</v>
       </c>
@@ -1678,27 +1699,27 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C8">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="I8" s="8">
+        <v>108</v>
+      </c>
+      <c r="I8" s="7">
         <v>0.31</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="7">
         <f t="shared" si="0"/>
         <v>0.92999999999999994</v>
       </c>
@@ -1708,32 +1729,29 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>171</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>171</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>89</v>
+        <v>172</v>
+      </c>
+      <c r="G9" t="s">
+        <v>171</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="I9" s="8">
-        <v>3.47</v>
-      </c>
-      <c r="J9" s="8">
-        <f t="shared" si="0"/>
-        <v>6.94</v>
+        <v>173</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="J9" s="7">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1741,10 +1759,10 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="E10" s="1" t="str">
         <f>"3557-10"</f>
@@ -1755,12 +1773,12 @@
         <v>3557-10</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="I10" s="8">
+        <v>109</v>
+      </c>
+      <c r="I10" s="7">
         <v>1.36</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="7">
         <f t="shared" si="0"/>
         <v>4.08</v>
       </c>
@@ -1770,27 +1788,27 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="I11" s="8">
+        <v>145</v>
+      </c>
+      <c r="I11" s="7">
         <v>0.52</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="7">
         <f>A11*I11</f>
         <v>1.56</v>
       </c>
@@ -1800,7 +1818,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D12" s="1" t="str">
         <f>"3557-10"</f>
@@ -1815,12 +1833,12 @@
         <v>3557-10</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="I12" s="8">
+        <v>109</v>
+      </c>
+      <c r="I12" s="7">
         <v>1.36</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="7">
         <f t="shared" si="0"/>
         <v>2.72</v>
       </c>
@@ -1830,27 +1848,27 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="I13" s="8">
+        <v>145</v>
+      </c>
+      <c r="I13" s="7">
         <v>0.52</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="7">
         <f t="shared" si="0"/>
         <v>1.04</v>
       </c>
@@ -1860,27 +1878,27 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C14">
         <v>0.5</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="I14" s="8">
+        <v>111</v>
+      </c>
+      <c r="I14" s="7">
         <v>0.78</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="7">
         <f t="shared" si="0"/>
         <v>0.78</v>
       </c>
@@ -1890,29 +1908,29 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
         <v>23</v>
       </c>
-      <c r="E15" t="s">
-        <v>24</v>
-      </c>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="I15" s="8">
-        <v>0.22</v>
-      </c>
-      <c r="J15" s="8">
-        <f t="shared" si="0"/>
-        <v>0.22</v>
+        <v>112</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="J15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1920,29 +1938,29 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
         <v>26</v>
       </c>
-      <c r="E16" t="s">
-        <v>27</v>
-      </c>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>135</v>
+        <v>183</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="I16" s="8">
-        <v>0.31</v>
-      </c>
-      <c r="J16" s="8">
-        <f t="shared" si="0"/>
-        <v>0.31</v>
+        <v>112</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="J16" s="7">
+        <f t="shared" si="0"/>
+        <v>0.27</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1950,29 +1968,29 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
         <v>21</v>
       </c>
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" t="s">
-        <v>22</v>
-      </c>
       <c r="G17" s="2" t="s">
-        <v>136</v>
+        <v>184</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="I17" s="8">
-        <v>0.52</v>
-      </c>
-      <c r="J17" s="8">
-        <f t="shared" si="0"/>
-        <v>0.52</v>
+        <v>185</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="J17" s="7">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1980,158 +1998,152 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
         <v>15</v>
       </c>
-      <c r="D18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" t="s">
-        <v>16</v>
-      </c>
       <c r="G18" s="2" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="I18" s="8">
+        <v>187</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="J18" s="7">
+        <f t="shared" si="0"/>
         <v>0.48</v>
-      </c>
-      <c r="J18" s="8">
-        <f t="shared" si="0"/>
-        <v>0.96</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="D19" t="s">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="E19" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="I19" s="8">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="J19" s="8">
-        <f t="shared" si="0"/>
-        <v>17.150000000000002</v>
+        <v>189</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1.98</v>
+      </c>
+      <c r="J19" s="7">
+        <f t="shared" si="0"/>
+        <v>5.9399999999999995</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>167</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" t="s">
-        <v>32</v>
+        <v>168</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>143</v>
+        <v>190</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="I20" s="8">
-        <v>3.9E-2</v>
-      </c>
-      <c r="J20" s="8">
-        <f t="shared" si="0"/>
-        <v>0.23399999999999999</v>
+        <v>191</v>
+      </c>
+      <c r="I20" s="7">
+        <v>3.68</v>
+      </c>
+      <c r="J20" s="7">
+        <f t="shared" si="0"/>
+        <v>14.72</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>154</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>155</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" t="s">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="I21" s="8">
-        <v>3.1E-2</v>
-      </c>
-      <c r="J21" s="8">
-        <f t="shared" si="0"/>
-        <v>6.2E-2</v>
+        <v>158</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0.61</v>
+      </c>
+      <c r="J21" s="7">
+        <f t="shared" si="0"/>
+        <v>0.61</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>169</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="I22" s="8">
-        <v>2.7E-2</v>
-      </c>
-      <c r="J22" s="8">
-        <f t="shared" si="0"/>
-        <v>5.3999999999999999E-2</v>
+        <v>118</v>
+      </c>
+      <c r="I22" s="7">
+        <v>3.9E-2</v>
+      </c>
+      <c r="J22" s="7">
+        <f t="shared" si="0"/>
+        <v>0.312</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -2139,32 +2151,32 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="I23" s="8">
-        <v>2.7E-2</v>
-      </c>
-      <c r="J23" s="8">
-        <f t="shared" si="0"/>
-        <v>5.3999999999999999E-2</v>
+        <v>162</v>
+      </c>
+      <c r="I23" s="7">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="J23" s="7">
+        <f t="shared" si="0"/>
+        <v>0.13200000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -2172,164 +2184,164 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="I24" s="8">
+        <v>118</v>
+      </c>
+      <c r="I24" s="7">
         <v>2.7E-2</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="7">
         <f t="shared" si="0"/>
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>180</v>
       </c>
       <c r="D25" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="I25" s="8">
+        <v>118</v>
+      </c>
+      <c r="I25" s="7">
         <v>2.7E-2</v>
       </c>
-      <c r="J25" s="8">
-        <f t="shared" si="0"/>
-        <v>2.7E-2</v>
+      <c r="J25" s="7">
+        <f t="shared" si="0"/>
+        <v>5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="E26" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="I26" s="8">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="J26" s="8">
-        <f t="shared" si="0"/>
-        <v>0.13800000000000001</v>
+        <v>118</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2.7E-2</v>
+      </c>
+      <c r="J26" s="7">
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D27" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="I27" s="8">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="J27" s="8">
-        <f t="shared" si="0"/>
-        <v>0.14400000000000002</v>
+        <v>118</v>
+      </c>
+      <c r="I27" s="7">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="J27" s="7">
+        <f t="shared" si="0"/>
+        <v>0.13800000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" t="s">
         <v>31</v>
       </c>
-      <c r="C28" t="s">
-        <v>142</v>
-      </c>
-      <c r="D28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" t="s">
-        <v>32</v>
-      </c>
       <c r="G28" s="2" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="I28" s="8">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="J28" s="8">
-        <f t="shared" si="0"/>
-        <v>0.13200000000000001</v>
+        <v>123</v>
+      </c>
+      <c r="I28" s="7">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="J28" s="7">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2337,98 +2349,98 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29">
-        <v>220</v>
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
+        <v>114</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="I29" s="8">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="J29" s="8">
-        <f t="shared" si="0"/>
-        <v>0.16400000000000001</v>
+        <v>125</v>
+      </c>
+      <c r="I29" s="7">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="J29" s="7">
+        <f t="shared" si="0"/>
+        <v>0.13200000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="C30">
+        <v>220</v>
       </c>
       <c r="D30" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E30" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="I30" s="8">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="J30" s="8">
-        <f t="shared" si="0"/>
-        <v>6.9000000000000006E-2</v>
+        <v>123</v>
+      </c>
+      <c r="I30" s="7">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="J30" s="7">
+        <f t="shared" si="0"/>
+        <v>0.16400000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="D31" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="E31" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="I31" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="J31" s="8">
-        <f t="shared" si="0"/>
-        <v>4.1999999999999993</v>
+        <v>118</v>
+      </c>
+      <c r="I31" s="7">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="J31" s="7">
+        <f t="shared" si="0"/>
+        <v>6.9000000000000006E-2</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2436,32 +2448,32 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="D32" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="E32" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="I32" s="8">
-        <v>3.9E-2</v>
-      </c>
-      <c r="J32" s="8">
-        <f t="shared" si="0"/>
-        <v>0.11699999999999999</v>
+        <v>128</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="J32" s="7">
+        <f t="shared" si="0"/>
+        <v>4.1999999999999993</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2469,92 +2481,95 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" t="s">
         <v>29</v>
       </c>
-      <c r="E33" t="s">
-        <v>30</v>
-      </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="I33" s="8">
+        <v>118</v>
+      </c>
+      <c r="I33" s="7">
         <v>3.9E-2</v>
       </c>
-      <c r="J33" s="8">
+      <c r="J33" s="7">
         <f t="shared" si="0"/>
         <v>0.11699999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="D34" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="E34" t="s">
-        <v>101</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>164</v>
+        <v>29</v>
+      </c>
+      <c r="F34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="I34" s="8">
-        <v>0.77</v>
-      </c>
-      <c r="J34" s="8">
-        <f t="shared" si="0"/>
-        <v>4.62</v>
+        <v>118</v>
+      </c>
+      <c r="I34" s="7">
+        <v>3.9E-2</v>
+      </c>
+      <c r="J34" s="7">
+        <f t="shared" si="0"/>
+        <v>0.11699999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C35" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D35" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="E35" t="s">
-        <v>98</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>166</v>
+        <v>87</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="I35" s="8">
-        <v>7.95</v>
-      </c>
-      <c r="J35" s="8">
-        <f t="shared" si="0"/>
-        <v>7.95</v>
+        <v>132</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0.77</v>
+      </c>
+      <c r="J35" s="7">
+        <f t="shared" si="0"/>
+        <v>4.62</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -2562,84 +2577,84 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="C36" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D36" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="E36" t="s">
-        <v>109</v>
-      </c>
-      <c r="F36" t="s">
-        <v>111</v>
-      </c>
-      <c r="G36" s="2">
+        <v>84</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I36" s="7">
+        <v>7.95</v>
+      </c>
+      <c r="J36" s="7">
+        <f t="shared" si="0"/>
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" t="s">
+        <v>94</v>
+      </c>
+      <c r="F37" t="s">
+        <v>96</v>
+      </c>
+      <c r="G37" s="2">
         <v>2756</v>
       </c>
-      <c r="H36" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="I36" s="8">
+      <c r="H37" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="I37" s="7">
         <f>34.93</f>
         <v>34.93</v>
       </c>
-      <c r="J36" s="8">
+      <c r="J37" s="7">
         <f t="shared" si="0"/>
         <v>34.93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>2</v>
-      </c>
-      <c r="F37" t="s">
-        <v>188</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="I37" s="8">
-        <v>1.27</v>
-      </c>
-      <c r="J37" s="8">
-        <f t="shared" si="0"/>
-        <v>2.54</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38" t="s">
-        <v>105</v>
-      </c>
-      <c r="C38" t="s">
-        <v>103</v>
-      </c>
-      <c r="D38" t="s">
-        <v>103</v>
-      </c>
-      <c r="E38" t="s">
-        <v>104</v>
+        <v>2</v>
+      </c>
+      <c r="F38" t="s">
+        <v>153</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="I38" s="8">
-        <v>1.39</v>
-      </c>
-      <c r="J38" s="8">
-        <f t="shared" si="0"/>
-        <v>1.39</v>
+        <v>152</v>
+      </c>
+      <c r="I38" s="7">
+        <v>1.27</v>
+      </c>
+      <c r="J38" s="7">
+        <f t="shared" si="0"/>
+        <v>2.54</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2647,107 +2662,113 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>91</v>
+      </c>
+      <c r="C39" t="s">
+        <v>89</v>
       </c>
       <c r="D39" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="E39" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>33</v>
+        <v>136</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="I39" s="8">
-        <v>12.88</v>
-      </c>
-      <c r="J39" s="8">
-        <f t="shared" si="0"/>
-        <v>12.88</v>
+        <v>137</v>
+      </c>
+      <c r="I39" s="7">
+        <v>1.39</v>
+      </c>
+      <c r="J39" s="7">
+        <f t="shared" si="0"/>
+        <v>1.39</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>32</v>
+      </c>
+      <c r="C40" t="s">
+        <v>177</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
+      </c>
+      <c r="G40" t="s">
+        <v>177</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="I40" s="8">
-        <v>4.3</v>
-      </c>
-      <c r="J40" s="8">
-        <f t="shared" si="0"/>
-        <v>12.899999999999999</v>
+        <v>178</v>
+      </c>
+      <c r="I40" s="7">
+        <v>3.94</v>
+      </c>
+      <c r="J40" s="7">
+        <f t="shared" si="0"/>
+        <v>3.94</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" s="2">
-        <v>1730502</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="I41" s="8">
-        <v>2.79</v>
-      </c>
-      <c r="J41" s="8">
-        <f t="shared" si="0"/>
-        <v>5.58</v>
+        <v>139</v>
+      </c>
+      <c r="I41" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="J41" s="7">
+        <f t="shared" si="0"/>
+        <v>12.899999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D42" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E42" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="G42" s="2">
+        <v>1730502</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="I42" s="8">
-        <v>8.81</v>
-      </c>
-      <c r="J42" s="8">
-        <f t="shared" si="0"/>
-        <v>26.43</v>
+        <v>140</v>
+      </c>
+      <c r="I42" s="7">
+        <v>2.79</v>
+      </c>
+      <c r="J42" s="7">
+        <f t="shared" si="0"/>
+        <v>5.58</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2755,86 +2776,102 @@
         <v>3</v>
       </c>
       <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" t="s">
+        <v>174</v>
+      </c>
+      <c r="E43" t="s">
+        <v>174</v>
+      </c>
+      <c r="G43" t="s">
+        <v>174</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="I43" s="7">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="J43" s="7">
+        <f t="shared" si="0"/>
+        <v>14.309999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
         <v>7</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" t="s">
         <v>6</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E44" t="s">
         <v>6</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="I43" s="8">
+      <c r="G44" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="I44" s="7">
         <v>18.309999999999999</v>
       </c>
-      <c r="J43" s="8">
+      <c r="J44" s="7">
         <f t="shared" si="0"/>
         <v>54.929999999999993</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G45" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="3">
-        <f>SUM(J1:J43)</f>
-        <v>210.50600000000003</v>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G46" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="3">
+        <f>SUM(J1:J44)</f>
+        <v>187.08599999999996</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J43">
+  <autoFilter ref="A1:J44">
     <sortState ref="A2:J41">
       <sortCondition ref="B1:B41"/>
     </sortState>
   </autoFilter>
   <mergeCells count="1">
-    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="G46:I46"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="H3" r:id="rId2"/>
-    <hyperlink ref="H4" r:id="rId3"/>
-    <hyperlink ref="H6" r:id="rId4"/>
-    <hyperlink ref="H5" r:id="rId5"/>
-    <hyperlink ref="H7" r:id="rId6"/>
-    <hyperlink ref="H8" r:id="rId7"/>
-    <hyperlink ref="H9" r:id="rId8"/>
-    <hyperlink ref="H10" r:id="rId9"/>
-    <hyperlink ref="H12" r:id="rId10"/>
-    <hyperlink ref="H14" r:id="rId11"/>
-    <hyperlink ref="H15" r:id="rId12"/>
-    <hyperlink ref="H16" r:id="rId13"/>
-    <hyperlink ref="H17" r:id="rId14"/>
-    <hyperlink ref="H18" r:id="rId15"/>
-    <hyperlink ref="H19" r:id="rId16"/>
-    <hyperlink ref="H20" r:id="rId17"/>
-    <hyperlink ref="H21" r:id="rId18"/>
-    <hyperlink ref="H27" r:id="rId19"/>
-    <hyperlink ref="H28" r:id="rId20"/>
-    <hyperlink ref="H29" r:id="rId21"/>
-    <hyperlink ref="H30" r:id="rId22"/>
-    <hyperlink ref="H31" r:id="rId23"/>
-    <hyperlink ref="H32" r:id="rId24"/>
-    <hyperlink ref="H33" r:id="rId25"/>
-    <hyperlink ref="H34" r:id="rId26"/>
-    <hyperlink ref="H35" r:id="rId27"/>
-    <hyperlink ref="H36" r:id="rId28"/>
-    <hyperlink ref="H38" r:id="rId29"/>
-    <hyperlink ref="H39" r:id="rId30"/>
-    <hyperlink ref="H40" r:id="rId31"/>
-    <hyperlink ref="H41" r:id="rId32"/>
-    <hyperlink ref="H42" r:id="rId33"/>
-    <hyperlink ref="H43" r:id="rId34"/>
-    <hyperlink ref="H11" r:id="rId35"/>
-    <hyperlink ref="H13" r:id="rId36"/>
-    <hyperlink ref="H37" r:id="rId37"/>
+    <hyperlink ref="H3" r:id="rId1"/>
+    <hyperlink ref="H5" r:id="rId2"/>
+    <hyperlink ref="H7" r:id="rId3"/>
+    <hyperlink ref="H8" r:id="rId4"/>
+    <hyperlink ref="H10" r:id="rId5"/>
+    <hyperlink ref="H12" r:id="rId6"/>
+    <hyperlink ref="H14" r:id="rId7"/>
+    <hyperlink ref="H22" r:id="rId8"/>
+    <hyperlink ref="H28" r:id="rId9"/>
+    <hyperlink ref="H29" r:id="rId10"/>
+    <hyperlink ref="H30" r:id="rId11"/>
+    <hyperlink ref="H31" r:id="rId12"/>
+    <hyperlink ref="H32" r:id="rId13"/>
+    <hyperlink ref="H33" r:id="rId14"/>
+    <hyperlink ref="H34" r:id="rId15"/>
+    <hyperlink ref="H35" r:id="rId16"/>
+    <hyperlink ref="H36" r:id="rId17"/>
+    <hyperlink ref="H37" r:id="rId18"/>
+    <hyperlink ref="H39" r:id="rId19"/>
+    <hyperlink ref="H41" r:id="rId20"/>
+    <hyperlink ref="H42" r:id="rId21"/>
+    <hyperlink ref="H44" r:id="rId22"/>
+    <hyperlink ref="H11" r:id="rId23"/>
+    <hyperlink ref="H13" r:id="rId24"/>
+    <hyperlink ref="H38" r:id="rId25"/>
+    <hyperlink ref="H21" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/carrier/carrier_board_BOM.xlsx
+++ b/doc/carrier/carrier_board_BOM.xlsx
@@ -15,14 +15,14 @@
     <sheet name="carrier_board_BOM" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">carrier_board_BOM!$A$1:$J$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">carrier_board_BOM!$A$1:$J$46</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="202">
   <si>
     <t>Qty</t>
   </si>
@@ -610,6 +610,24 @@
   </si>
   <si>
     <t>http://www.samsungsem.com/global/front/downloadcms.do?path=%2F%2Fglobal%2F%2Fsupport%2F%2Fproduct-search%2F%2Fmlcc%2F%2F__icsFiles%2F%2Fafieldfile%2F%2F2014%2F%2F11%2F%2F05&amp;fileName=C_CL10F104ZB8NNNC.pdf</t>
+  </si>
+  <si>
+    <t>D6, D7</t>
+  </si>
+  <si>
+    <t>SD0603S040S0R2</t>
+  </si>
+  <si>
+    <t>DIODE SCHOTTKY 40V 200MA 0603</t>
+  </si>
+  <si>
+    <t>http://datasheets.avx.com/schottky.pdf</t>
+  </si>
+  <si>
+    <t>R37</t>
+  </si>
+  <si>
+    <t>RC0603JR-070RL</t>
   </si>
 </sst>
 </file>
@@ -1449,10 +1467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1561,7 +1579,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="J3" s="7">
-        <f t="shared" ref="J3:J44" si="0">A3*I3</f>
+        <f t="shared" ref="J3:J46" si="0">A3*I3</f>
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -1756,31 +1774,35 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E10" s="1" t="str">
-        <f>"3557-10"</f>
-        <v>3557-10</v>
-      </c>
-      <c r="G10" s="1" t="str">
-        <f>"3557-10"</f>
-        <v>3557-10</v>
+        <v>196</v>
+      </c>
+      <c r="C10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D10" t="s">
+        <v>197</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>198</v>
+      </c>
+      <c r="G10" t="s">
+        <v>197</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>109</v>
+        <v>199</v>
       </c>
       <c r="I10" s="7">
-        <v>1.36</v>
+        <v>0.66</v>
       </c>
       <c r="J10" s="7">
         <f t="shared" si="0"/>
-        <v>4.08</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1790,57 +1812,56 @@
       <c r="B11" t="s">
         <v>61</v>
       </c>
-      <c r="C11" t="s">
-        <v>60</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <f>"3557-10"</f>
+        <v>3557-10</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f>"3557-10"</f>
+        <v>3557-10</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="I11" s="7">
-        <v>0.52</v>
+        <v>1.36</v>
       </c>
       <c r="J11" s="7">
-        <f>A11*I11</f>
-        <v>1.56</v>
+        <f t="shared" si="0"/>
+        <v>4.08</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="1" t="str">
-        <f>"3557-10"</f>
-        <v>3557-10</v>
-      </c>
-      <c r="E12" s="1" t="str">
-        <f>"3557-10"</f>
-        <v>3557-10</v>
-      </c>
-      <c r="G12" s="1" t="str">
-        <f>"3557-10"</f>
-        <v>3557-10</v>
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="I12" s="7">
-        <v>1.36</v>
+        <v>0.52</v>
       </c>
       <c r="J12" s="7">
-        <f t="shared" si="0"/>
-        <v>2.72</v>
+        <f>A12*I12</f>
+        <v>1.56</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1850,57 +1871,57 @@
       <c r="B13" t="s">
         <v>76</v>
       </c>
-      <c r="C13" t="s">
-        <v>150</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>149</v>
+      <c r="D13" s="1" t="str">
+        <f>"3557-10"</f>
+        <v>3557-10</v>
+      </c>
+      <c r="E13" s="1" t="str">
+        <f>"3557-10"</f>
+        <v>3557-10</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f>"3557-10"</f>
+        <v>3557-10</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="I13" s="7">
-        <v>0.52</v>
+        <v>1.36</v>
       </c>
       <c r="J13" s="7">
         <f t="shared" si="0"/>
-        <v>1.04</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14">
-        <v>0.5</v>
+        <v>76</v>
+      </c>
+      <c r="C14" t="s">
+        <v>150</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>110</v>
+        <v>147</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="I14" s="7">
-        <v>0.78</v>
+        <v>0.52</v>
       </c>
       <c r="J14" s="7">
         <f t="shared" si="0"/>
-        <v>0.78</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1908,29 +1929,29 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>182</v>
+        <v>110</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I15" s="7">
-        <v>0.25</v>
+        <v>0.78</v>
       </c>
       <c r="J15" s="7">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1938,29 +1959,29 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F16" t="s">
         <v>21</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>112</v>
       </c>
       <c r="I16" s="7">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="J16" s="7">
         <f t="shared" si="0"/>
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1968,215 +1989,212 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F17" t="s">
         <v>21</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>185</v>
+        <v>112</v>
       </c>
       <c r="I17" s="7">
-        <v>0.4</v>
+        <v>0.27</v>
       </c>
       <c r="J17" s="7">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I18" s="7">
-        <v>0.24</v>
+        <v>0.4</v>
       </c>
       <c r="J18" s="7">
         <f t="shared" si="0"/>
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>164</v>
-      </c>
-      <c r="C19" t="s">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>113</v>
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I19" s="7">
-        <v>1.98</v>
+        <v>0.24</v>
       </c>
       <c r="J19" s="7">
         <f t="shared" si="0"/>
-        <v>5.9399999999999995</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E20" t="s">
-        <v>168</v>
+        <v>113</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I20" s="7">
-        <v>3.68</v>
+        <v>1.98</v>
       </c>
       <c r="J20" s="7">
         <f t="shared" si="0"/>
-        <v>14.72</v>
+        <v>5.9399999999999995</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="C21" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="D21" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="E21" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="I21" s="7">
-        <v>0.61</v>
+        <v>3.68</v>
       </c>
       <c r="J21" s="7">
         <f t="shared" si="0"/>
-        <v>0.61</v>
+        <v>14.72</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>155</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>155</v>
       </c>
       <c r="E22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" t="s">
-        <v>31</v>
+        <v>156</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="I22" s="7">
-        <v>3.9E-2</v>
+        <v>0.61</v>
       </c>
       <c r="J22" s="7">
         <f t="shared" si="0"/>
-        <v>0.312</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="C23" t="s">
-        <v>163</v>
+        <v>62</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F23" t="s">
         <v>31</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="I23" s="7">
-        <v>6.6000000000000003E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J23" s="7">
         <f t="shared" si="0"/>
-        <v>0.13200000000000001</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -2184,10 +2202,10 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="D24" t="s">
         <v>39</v>
@@ -2199,17 +2217,17 @@
         <v>31</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="I24" s="7">
-        <v>2.7E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="J24" s="7">
         <f t="shared" si="0"/>
-        <v>5.3999999999999999E-2</v>
+        <v>0.13200000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -2217,10 +2235,10 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D25" t="s">
         <v>39</v>
@@ -2232,7 +2250,7 @@
         <v>31</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>118</v>
@@ -2247,13 +2265,13 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>180</v>
       </c>
       <c r="D26" t="s">
         <v>39</v>
@@ -2265,7 +2283,7 @@
         <v>31</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>118</v>
@@ -2275,84 +2293,84 @@
       </c>
       <c r="J26" s="7">
         <f t="shared" si="0"/>
-        <v>2.7E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E27" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="F27" t="s">
         <v>31</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>118</v>
       </c>
       <c r="I27" s="7">
-        <v>6.9000000000000006E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="J27" s="7">
         <f t="shared" si="0"/>
-        <v>0.13800000000000001</v>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>181</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="D28" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="F28" t="s">
         <v>31</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I28" s="7">
-        <v>4.8000000000000001E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="J28" s="7">
         <f t="shared" si="0"/>
-        <v>0.24</v>
+        <v>0.13800000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>181</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="D29" t="s">
         <v>28</v>
@@ -2364,17 +2382,17 @@
         <v>31</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I29" s="7">
-        <v>6.6000000000000003E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="J29" s="7">
         <f t="shared" si="0"/>
-        <v>0.13200000000000001</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2382,43 +2400,43 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30">
-        <v>220</v>
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>114</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="E30" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="F30" t="s">
         <v>31</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I30" s="7">
-        <v>8.2000000000000003E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="J30" s="7">
         <f t="shared" si="0"/>
-        <v>0.16400000000000001</v>
+        <v>0.13200000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" t="s">
-        <v>62</v>
+        <v>72</v>
+      </c>
+      <c r="C31">
+        <v>220</v>
       </c>
       <c r="D31" t="s">
         <v>63</v>
@@ -2430,83 +2448,83 @@
         <v>31</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="I31" s="7">
-        <v>6.9000000000000006E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="J31" s="7">
         <f t="shared" si="0"/>
-        <v>6.9000000000000006E-2</v>
+        <v>0.16400000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D32" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E32" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F32" t="s">
         <v>31</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="I32" s="7">
-        <v>1.4</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="J32" s="7">
         <f t="shared" si="0"/>
-        <v>4.1999999999999993</v>
+        <v>6.9000000000000006E-2</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" t="s">
-        <v>81</v>
+        <v>200</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="E33" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="F33" t="s">
         <v>31</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>129</v>
+        <v>201</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>118</v>
       </c>
       <c r="I33" s="7">
-        <v>3.9E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="J33" s="7">
         <f t="shared" si="0"/>
-        <v>0.11699999999999999</v>
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -2514,147 +2532,158 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D34" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="E34" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F34" t="s">
         <v>31</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="I34" s="7">
-        <v>3.9E-2</v>
+        <v>1.4</v>
       </c>
       <c r="J34" s="7">
         <f t="shared" si="0"/>
-        <v>0.11699999999999999</v>
+        <v>4.1999999999999993</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D35" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="E35" t="s">
-        <v>87</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>131</v>
+        <v>29</v>
+      </c>
+      <c r="F35" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="I35" s="7">
-        <v>0.77</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J35" s="7">
         <f t="shared" si="0"/>
-        <v>4.62</v>
+        <v>0.11699999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D36" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="E36" t="s">
-        <v>84</v>
+        <v>29</v>
+      </c>
+      <c r="F36" t="s">
+        <v>31</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="I36" s="7">
-        <v>7.95</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J36" s="7">
         <f t="shared" si="0"/>
-        <v>7.95</v>
+        <v>0.11699999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D37" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E37" t="s">
-        <v>94</v>
-      </c>
-      <c r="F37" t="s">
-        <v>96</v>
-      </c>
-      <c r="G37" s="2">
-        <v>2756</v>
+        <v>87</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I37" s="7">
-        <f>34.93</f>
-        <v>34.93</v>
+        <v>0.77</v>
       </c>
       <c r="J37" s="7">
         <f t="shared" si="0"/>
-        <v>34.93</v>
+        <v>4.62</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>2</v>
-      </c>
-      <c r="F38" t="s">
-        <v>153</v>
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" t="s">
+        <v>84</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I38" s="7">
-        <v>1.27</v>
+        <v>7.95</v>
       </c>
       <c r="J38" s="7">
         <f t="shared" si="0"/>
-        <v>2.54</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2662,113 +2691,114 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C39" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D39" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E39" t="s">
-        <v>90</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>136</v>
+        <v>94</v>
+      </c>
+      <c r="F39" t="s">
+        <v>96</v>
+      </c>
+      <c r="G39" s="2">
+        <v>2756</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I39" s="7">
-        <v>1.39</v>
+        <f>34.93</f>
+        <v>34.93</v>
       </c>
       <c r="J39" s="7">
         <f t="shared" si="0"/>
-        <v>1.39</v>
+        <v>34.93</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="B40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" t="s">
-        <v>177</v>
-      </c>
-      <c r="D40" t="s">
-        <v>176</v>
-      </c>
-      <c r="E40" t="s">
-        <v>176</v>
-      </c>
-      <c r="G40" t="s">
-        <v>177</v>
+        <v>2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>153</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="I40" s="7">
-        <v>3.94</v>
+        <v>1.27</v>
       </c>
       <c r="J40" s="7">
         <f t="shared" si="0"/>
-        <v>3.94</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>91</v>
+      </c>
+      <c r="C41" t="s">
+        <v>89</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I41" s="7">
-        <v>4.3</v>
+        <v>1.39</v>
       </c>
       <c r="J41" s="7">
         <f t="shared" si="0"/>
-        <v>12.899999999999999</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>32</v>
+      </c>
+      <c r="C42" t="s">
+        <v>177</v>
       </c>
       <c r="D42" t="s">
-        <v>16</v>
+        <v>176</v>
       </c>
       <c r="E42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" s="2">
-        <v>1730502</v>
+        <v>176</v>
+      </c>
+      <c r="G42" t="s">
+        <v>177</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="I42" s="7">
-        <v>2.79</v>
+        <v>3.94</v>
       </c>
       <c r="J42" s="7">
         <f t="shared" si="0"/>
-        <v>5.58</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2776,102 +2806,158 @@
         <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>174</v>
+        <v>9</v>
       </c>
       <c r="E43" t="s">
-        <v>174</v>
-      </c>
-      <c r="G43" t="s">
-        <v>174</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="I43" s="7">
-        <v>4.7699999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="J43" s="7">
         <f t="shared" si="0"/>
-        <v>14.309999999999999</v>
+        <v>12.899999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" s="2">
+        <v>1730502</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="I44" s="7">
+        <v>2.79</v>
+      </c>
+      <c r="J44" s="7">
+        <f t="shared" si="0"/>
+        <v>5.58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>3</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" t="s">
+        <v>174</v>
+      </c>
+      <c r="E45" t="s">
+        <v>174</v>
+      </c>
+      <c r="G45" t="s">
+        <v>174</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="I45" s="7">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="J45" s="7">
+        <f t="shared" si="0"/>
+        <v>14.309999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
         <v>7</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D46" t="s">
         <v>6</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E46" t="s">
         <v>6</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G46" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="H46" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I46" s="7">
         <v>18.309999999999999</v>
       </c>
-      <c r="J44" s="7">
+      <c r="J46" s="7">
         <f t="shared" si="0"/>
         <v>54.929999999999993</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G46" s="8" t="s">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G48" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="3">
-        <f>SUM(J1:J44)</f>
-        <v>187.08599999999996</v>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="3">
+        <f>SUM(J1:J46)</f>
+        <v>188.43799999999999</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J44">
+  <autoFilter ref="A1:J46">
     <sortState ref="A2:J41">
       <sortCondition ref="B1:B41"/>
     </sortState>
   </autoFilter>
   <mergeCells count="1">
-    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G48:I48"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H3" r:id="rId1"/>
     <hyperlink ref="H5" r:id="rId2"/>
     <hyperlink ref="H7" r:id="rId3"/>
     <hyperlink ref="H8" r:id="rId4"/>
-    <hyperlink ref="H10" r:id="rId5"/>
-    <hyperlink ref="H12" r:id="rId6"/>
-    <hyperlink ref="H14" r:id="rId7"/>
-    <hyperlink ref="H22" r:id="rId8"/>
-    <hyperlink ref="H28" r:id="rId9"/>
-    <hyperlink ref="H29" r:id="rId10"/>
-    <hyperlink ref="H30" r:id="rId11"/>
-    <hyperlink ref="H31" r:id="rId12"/>
-    <hyperlink ref="H32" r:id="rId13"/>
-    <hyperlink ref="H33" r:id="rId14"/>
-    <hyperlink ref="H34" r:id="rId15"/>
-    <hyperlink ref="H35" r:id="rId16"/>
-    <hyperlink ref="H36" r:id="rId17"/>
-    <hyperlink ref="H37" r:id="rId18"/>
-    <hyperlink ref="H39" r:id="rId19"/>
-    <hyperlink ref="H41" r:id="rId20"/>
-    <hyperlink ref="H42" r:id="rId21"/>
-    <hyperlink ref="H44" r:id="rId22"/>
-    <hyperlink ref="H11" r:id="rId23"/>
-    <hyperlink ref="H13" r:id="rId24"/>
-    <hyperlink ref="H38" r:id="rId25"/>
-    <hyperlink ref="H21" r:id="rId26"/>
+    <hyperlink ref="H11" r:id="rId5"/>
+    <hyperlink ref="H13" r:id="rId6"/>
+    <hyperlink ref="H15" r:id="rId7"/>
+    <hyperlink ref="H23" r:id="rId8"/>
+    <hyperlink ref="H29" r:id="rId9"/>
+    <hyperlink ref="H30" r:id="rId10"/>
+    <hyperlink ref="H31" r:id="rId11"/>
+    <hyperlink ref="H32" r:id="rId12"/>
+    <hyperlink ref="H34" r:id="rId13"/>
+    <hyperlink ref="H35" r:id="rId14"/>
+    <hyperlink ref="H36" r:id="rId15"/>
+    <hyperlink ref="H37" r:id="rId16"/>
+    <hyperlink ref="H38" r:id="rId17"/>
+    <hyperlink ref="H39" r:id="rId18"/>
+    <hyperlink ref="H41" r:id="rId19"/>
+    <hyperlink ref="H43" r:id="rId20"/>
+    <hyperlink ref="H44" r:id="rId21"/>
+    <hyperlink ref="H46" r:id="rId22"/>
+    <hyperlink ref="H12" r:id="rId23"/>
+    <hyperlink ref="H14" r:id="rId24"/>
+    <hyperlink ref="H40" r:id="rId25"/>
+    <hyperlink ref="H22" r:id="rId26"/>
+    <hyperlink ref="H10" r:id="rId27"/>
+    <hyperlink ref="H33" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/carrier/carrier_board_BOM.xlsx
+++ b/doc/carrier/carrier_board_BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\compact_LTM4607_PCB\doc\carrier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alain\Documents\compact_LTM4607_PCB\doc\carrier\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,14 +15,14 @@
     <sheet name="carrier_board_BOM" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">carrier_board_BOM!$A$1:$J$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">carrier_board_BOM!$A$1:$J$47</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="206">
   <si>
     <t>Qty</t>
   </si>
@@ -264,15 +264,9 @@
     <t>50k</t>
   </si>
   <si>
-    <t>R6, R12, R18</t>
-  </si>
-  <si>
     <t>5k</t>
   </si>
   <si>
-    <t>R5, R11, R17</t>
-  </si>
-  <si>
     <t>LTC4418</t>
   </si>
   <si>
@@ -628,6 +622,24 @@
   </si>
   <si>
     <t>RC0603JR-070RL</t>
+  </si>
+  <si>
+    <t>R5, R11, R17, R39</t>
+  </si>
+  <si>
+    <t>R6, R12, R18, R38</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>MBRS2040LT3G</t>
+  </si>
+  <si>
+    <t>DIODE SCHOTTKY 40V 2A SMB</t>
+  </si>
+  <si>
+    <t>https://www.onsemi.com/pub/Collateral/MBRS2040LT3-D.PDF</t>
   </si>
 </sst>
 </file>
@@ -1467,10 +1479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1505,16 +1517,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1522,7 +1534,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
@@ -1537,10 +1549,10 @@
         <v>45</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I2" s="7">
         <v>5.3999999999999999E-2</v>
@@ -1570,16 +1582,16 @@
         <v>45</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I3" s="7">
         <v>0.14000000000000001</v>
       </c>
       <c r="J3" s="7">
-        <f t="shared" ref="J3:J46" si="0">A3*I3</f>
+        <f t="shared" ref="J3:J47" si="0">A3*I3</f>
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -1603,10 +1615,10 @@
         <v>45</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I4" s="7">
         <v>0.18</v>
@@ -1636,10 +1648,10 @@
         <v>52</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I5" s="7">
         <v>0.91</v>
@@ -1669,10 +1681,10 @@
         <v>45</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I6" s="7">
         <v>0.14000000000000001</v>
@@ -1687,22 +1699,22 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I7" s="7">
         <v>0.69</v>
@@ -1729,10 +1741,10 @@
         <v>36</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I8" s="7">
         <v>0.31</v>
@@ -1750,19 +1762,19 @@
         <v>78</v>
       </c>
       <c r="C9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E9" t="s">
+        <v>170</v>
+      </c>
+      <c r="G9" t="s">
+        <v>169</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>171</v>
-      </c>
-      <c r="D9" t="s">
-        <v>171</v>
-      </c>
-      <c r="E9" t="s">
-        <v>172</v>
-      </c>
-      <c r="G9" t="s">
-        <v>171</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>173</v>
       </c>
       <c r="I9" s="7">
         <v>0.65</v>
@@ -1777,25 +1789,25 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>197</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>199</v>
       </c>
       <c r="I10" s="7">
         <v>0.66</v>
@@ -1807,31 +1819,35 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E11" s="1" t="str">
-        <f>"3557-10"</f>
-        <v>3557-10</v>
-      </c>
-      <c r="G11" s="1" t="str">
-        <f>"3557-10"</f>
-        <v>3557-10</v>
+        <v>202</v>
+      </c>
+      <c r="C11" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" t="s">
+        <v>204</v>
+      </c>
+      <c r="G11" t="s">
+        <v>203</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>109</v>
+        <v>205</v>
       </c>
       <c r="I11" s="7">
-        <v>1.36</v>
+        <v>0.53</v>
       </c>
       <c r="J11" s="7">
         <f t="shared" si="0"/>
-        <v>4.08</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1841,57 +1857,56 @@
       <c r="B12" t="s">
         <v>61</v>
       </c>
-      <c r="C12" t="s">
-        <v>60</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="E12" s="1" t="str">
+        <f>"3557-10"</f>
+        <v>3557-10</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f>"3557-10"</f>
+        <v>3557-10</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="I12" s="7">
-        <v>0.52</v>
+        <v>1.36</v>
       </c>
       <c r="J12" s="7">
-        <f>A12*I12</f>
-        <v>1.56</v>
+        <f t="shared" si="0"/>
+        <v>4.08</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="1" t="str">
-        <f>"3557-10"</f>
-        <v>3557-10</v>
-      </c>
-      <c r="E13" s="1" t="str">
-        <f>"3557-10"</f>
-        <v>3557-10</v>
-      </c>
-      <c r="G13" s="1" t="str">
-        <f>"3557-10"</f>
-        <v>3557-10</v>
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="I13" s="7">
-        <v>1.36</v>
+        <v>0.52</v>
       </c>
       <c r="J13" s="7">
-        <f t="shared" si="0"/>
-        <v>2.72</v>
+        <f>A13*I13</f>
+        <v>1.56</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1901,57 +1916,57 @@
       <c r="B14" t="s">
         <v>76</v>
       </c>
-      <c r="C14" t="s">
-        <v>150</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>149</v>
+      <c r="D14" s="1" t="str">
+        <f>"3557-10"</f>
+        <v>3557-10</v>
+      </c>
+      <c r="E14" s="1" t="str">
+        <f>"3557-10"</f>
+        <v>3557-10</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f>"3557-10"</f>
+        <v>3557-10</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="I14" s="7">
-        <v>0.52</v>
+        <v>1.36</v>
       </c>
       <c r="J14" s="7">
         <f t="shared" si="0"/>
-        <v>1.04</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15">
-        <v>0.5</v>
+        <v>76</v>
+      </c>
+      <c r="C15" t="s">
+        <v>148</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>110</v>
+        <v>145</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="I15" s="7">
-        <v>0.78</v>
+        <v>0.52</v>
       </c>
       <c r="J15" s="7">
         <f t="shared" si="0"/>
-        <v>0.78</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1959,29 +1974,29 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>182</v>
+        <v>108</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I16" s="7">
-        <v>0.25</v>
+        <v>0.78</v>
       </c>
       <c r="J16" s="7">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1989,29 +2004,29 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F17" t="s">
         <v>21</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I17" s="7">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="J17" s="7">
         <f t="shared" si="0"/>
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -2019,215 +2034,212 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F18" t="s">
         <v>21</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="I18" s="7">
-        <v>0.4</v>
+        <v>0.27</v>
       </c>
       <c r="J18" s="7">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="I19" s="7">
-        <v>0.24</v>
+        <v>0.4</v>
       </c>
       <c r="J19" s="7">
         <f t="shared" si="0"/>
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" t="s">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>113</v>
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I20" s="7">
-        <v>1.98</v>
+        <v>0.24</v>
       </c>
       <c r="J20" s="7">
         <f t="shared" si="0"/>
-        <v>5.9399999999999995</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C21" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D21" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E21" t="s">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I21" s="7">
-        <v>3.68</v>
+        <v>1.98</v>
       </c>
       <c r="J21" s="7">
         <f t="shared" si="0"/>
-        <v>14.72</v>
+        <v>5.9399999999999995</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C22" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D22" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="E22" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="I22" s="7">
-        <v>0.61</v>
+        <v>3.68</v>
       </c>
       <c r="J22" s="7">
         <f t="shared" si="0"/>
-        <v>0.61</v>
+        <v>14.72</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>153</v>
       </c>
       <c r="D23" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" t="s">
-        <v>31</v>
+        <v>154</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="I23" s="7">
-        <v>3.9E-2</v>
+        <v>0.61</v>
       </c>
       <c r="J23" s="7">
         <f t="shared" si="0"/>
-        <v>0.312</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="C24" t="s">
-        <v>163</v>
+        <v>62</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F24" t="s">
         <v>31</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="I24" s="7">
-        <v>6.6000000000000003E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J24" s="7">
         <f t="shared" si="0"/>
-        <v>0.13200000000000001</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -2235,10 +2247,10 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D25" t="s">
         <v>39</v>
@@ -2250,17 +2262,17 @@
         <v>31</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="I25" s="7">
-        <v>2.7E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="J25" s="7">
         <f t="shared" si="0"/>
-        <v>5.3999999999999999E-2</v>
+        <v>0.13200000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2268,10 +2280,10 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D26" t="s">
         <v>39</v>
@@ -2283,10 +2295,10 @@
         <v>31</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I26" s="7">
         <v>2.7E-2</v>
@@ -2298,13 +2310,13 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="D27" t="s">
         <v>39</v>
@@ -2316,94 +2328,94 @@
         <v>31</v>
       </c>
       <c r="G27" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="I27" s="7">
         <v>2.7E-2</v>
       </c>
       <c r="J27" s="7">
         <f t="shared" si="0"/>
-        <v>2.7E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E28" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="F28" t="s">
         <v>31</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I28" s="7">
-        <v>6.9000000000000006E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="J28" s="7">
         <f t="shared" si="0"/>
-        <v>0.13800000000000001</v>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>181</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="D29" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E29" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="F29" t="s">
         <v>31</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="I29" s="7">
-        <v>4.8000000000000001E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="J29" s="7">
         <f t="shared" si="0"/>
-        <v>0.24</v>
+        <v>0.13800000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>179</v>
       </c>
       <c r="C30" t="s">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="D30" t="s">
         <v>28</v>
@@ -2415,17 +2427,17 @@
         <v>31</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I30" s="7">
-        <v>6.6000000000000003E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="J30" s="7">
         <f t="shared" si="0"/>
-        <v>0.13200000000000001</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2433,43 +2445,43 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31">
-        <v>220</v>
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>112</v>
       </c>
       <c r="D31" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="E31" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="F31" t="s">
         <v>31</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>123</v>
       </c>
       <c r="I31" s="7">
-        <v>8.2000000000000003E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="J31" s="7">
         <f t="shared" si="0"/>
-        <v>0.16400000000000001</v>
+        <v>0.13200000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" t="s">
-        <v>62</v>
+        <v>72</v>
+      </c>
+      <c r="C32">
+        <v>220</v>
       </c>
       <c r="D32" t="s">
         <v>63</v>
@@ -2481,17 +2493,17 @@
         <v>31</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I32" s="7">
-        <v>6.9000000000000006E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="J32" s="7">
         <f t="shared" si="0"/>
-        <v>6.9000000000000006E-2</v>
+        <v>0.16400000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2499,10 +2511,10 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>200</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>62</v>
       </c>
       <c r="D33" t="s">
         <v>63</v>
@@ -2514,50 +2526,50 @@
         <v>31</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>201</v>
+        <v>115</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I33" s="7">
-        <v>3.2000000000000001E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="J33" s="7">
         <f t="shared" si="0"/>
-        <v>3.2000000000000001E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" t="s">
-        <v>68</v>
+        <v>198</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E34" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F34" t="s">
         <v>31</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>127</v>
+        <v>199</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="I34" s="7">
-        <v>1.4</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="J34" s="7">
         <f t="shared" si="0"/>
-        <v>4.1999999999999993</v>
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2565,43 +2577,43 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D35" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="E35" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F35" t="s">
         <v>31</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="I35" s="7">
-        <v>3.9E-2</v>
+        <v>1.4</v>
       </c>
       <c r="J35" s="7">
         <f t="shared" si="0"/>
-        <v>0.11699999999999999</v>
+        <v>4.1999999999999993</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B36" t="s">
+        <v>200</v>
+      </c>
+      <c r="C36" t="s">
         <v>80</v>
-      </c>
-      <c r="C36" t="s">
-        <v>79</v>
       </c>
       <c r="D36" t="s">
         <v>28</v>
@@ -2613,77 +2625,80 @@
         <v>31</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I36" s="7">
         <v>3.9E-2</v>
       </c>
       <c r="J36" s="7">
         <f t="shared" si="0"/>
-        <v>0.11699999999999999</v>
+        <v>0.156</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>201</v>
       </c>
       <c r="C37" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D37" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="E37" t="s">
-        <v>87</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>131</v>
+        <v>29</v>
+      </c>
+      <c r="F37" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="I37" s="7">
-        <v>0.77</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J37" s="7">
         <f t="shared" si="0"/>
-        <v>4.62</v>
+        <v>0.156</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" t="s">
         <v>85</v>
       </c>
-      <c r="C38" t="s">
-        <v>83</v>
-      </c>
-      <c r="D38" t="s">
-        <v>83</v>
-      </c>
-      <c r="E38" t="s">
-        <v>84</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>133</v>
+      <c r="G38" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I38" s="7">
-        <v>7.95</v>
+        <v>0.77</v>
       </c>
       <c r="J38" s="7">
         <f t="shared" si="0"/>
-        <v>7.95</v>
+        <v>4.62</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2691,84 +2706,84 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" t="s">
+        <v>82</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="I39" s="7">
+        <v>7.95</v>
+      </c>
+      <c r="J39" s="7">
+        <f t="shared" si="0"/>
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" t="s">
         <v>94</v>
       </c>
-      <c r="D39" t="s">
-        <v>94</v>
-      </c>
-      <c r="E39" t="s">
-        <v>94</v>
-      </c>
-      <c r="F39" t="s">
-        <v>96</v>
-      </c>
-      <c r="G39" s="2">
+      <c r="G40" s="2">
         <v>2756</v>
       </c>
-      <c r="H39" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="I39" s="7">
+      <c r="H40" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I40" s="7">
         <f>34.93</f>
         <v>34.93</v>
       </c>
-      <c r="J39" s="7">
+      <c r="J40" s="7">
         <f t="shared" si="0"/>
         <v>34.93</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>2</v>
-      </c>
-      <c r="F40" t="s">
-        <v>153</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="I40" s="7">
-        <v>1.27</v>
-      </c>
-      <c r="J40" s="7">
-        <f t="shared" si="0"/>
-        <v>2.54</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41" t="s">
-        <v>91</v>
-      </c>
-      <c r="C41" t="s">
-        <v>89</v>
-      </c>
-      <c r="D41" t="s">
-        <v>89</v>
-      </c>
-      <c r="E41" t="s">
-        <v>90</v>
+        <v>2</v>
+      </c>
+      <c r="F41" t="s">
+        <v>151</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="I41" s="7">
-        <v>1.39</v>
+        <v>1.27</v>
       </c>
       <c r="J41" s="7">
         <f t="shared" si="0"/>
-        <v>1.39</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2776,110 +2791,113 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="C42" t="s">
-        <v>177</v>
+        <v>87</v>
       </c>
       <c r="D42" t="s">
-        <v>176</v>
+        <v>87</v>
       </c>
       <c r="E42" t="s">
-        <v>176</v>
-      </c>
-      <c r="G42" t="s">
-        <v>177</v>
+        <v>88</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="I42" s="7">
-        <v>3.94</v>
+        <v>1.39</v>
       </c>
       <c r="J42" s="7">
         <f t="shared" si="0"/>
-        <v>3.94</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>32</v>
+      </c>
+      <c r="C43" t="s">
+        <v>175</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>174</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>138</v>
+        <v>174</v>
+      </c>
+      <c r="G43" t="s">
+        <v>175</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="I43" s="7">
-        <v>4.3</v>
+        <v>3.94</v>
       </c>
       <c r="J43" s="7">
         <f t="shared" si="0"/>
-        <v>12.899999999999999</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" s="2">
-        <v>1730502</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I44" s="7">
-        <v>2.79</v>
+        <v>4.3</v>
       </c>
       <c r="J44" s="7">
         <f t="shared" si="0"/>
-        <v>5.58</v>
+        <v>12.899999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D45" t="s">
-        <v>174</v>
+        <v>16</v>
       </c>
       <c r="E45" t="s">
-        <v>174</v>
-      </c>
-      <c r="G45" t="s">
-        <v>174</v>
+        <v>16</v>
+      </c>
+      <c r="G45" s="2">
+        <v>1730502</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="I45" s="7">
-        <v>4.7699999999999996</v>
+        <v>2.79</v>
       </c>
       <c r="J45" s="7">
         <f t="shared" si="0"/>
-        <v>14.309999999999999</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2887,77 +2905,106 @@
         <v>3</v>
       </c>
       <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" t="s">
+        <v>172</v>
+      </c>
+      <c r="E46" t="s">
+        <v>172</v>
+      </c>
+      <c r="G46" t="s">
+        <v>172</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="I46" s="7">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="J46" s="7">
+        <f t="shared" si="0"/>
+        <v>14.309999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
         <v>7</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D47" t="s">
         <v>6</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E47" t="s">
         <v>6</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="G47" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="I47" s="7">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="J47" s="7">
+        <f t="shared" si="0"/>
+        <v>54.929999999999993</v>
+      </c>
+    </row>
+    <row r="49" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G49" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="H46" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I46" s="7">
-        <v>18.309999999999999</v>
-      </c>
-      <c r="J46" s="7">
-        <f t="shared" si="0"/>
-        <v>54.929999999999993</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G48" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="3">
-        <f>SUM(J1:J46)</f>
-        <v>188.43799999999999</v>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="3">
+        <f>SUM(J1:J47)</f>
+        <v>189.04599999999999</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J46">
+  <autoFilter ref="A1:J47">
     <sortState ref="A2:J41">
       <sortCondition ref="B1:B41"/>
     </sortState>
   </autoFilter>
   <mergeCells count="1">
-    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="G49:I49"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H3" r:id="rId1"/>
     <hyperlink ref="H5" r:id="rId2"/>
     <hyperlink ref="H7" r:id="rId3"/>
     <hyperlink ref="H8" r:id="rId4"/>
-    <hyperlink ref="H11" r:id="rId5"/>
-    <hyperlink ref="H13" r:id="rId6"/>
-    <hyperlink ref="H15" r:id="rId7"/>
-    <hyperlink ref="H23" r:id="rId8"/>
-    <hyperlink ref="H29" r:id="rId9"/>
-    <hyperlink ref="H30" r:id="rId10"/>
-    <hyperlink ref="H31" r:id="rId11"/>
-    <hyperlink ref="H32" r:id="rId12"/>
-    <hyperlink ref="H34" r:id="rId13"/>
-    <hyperlink ref="H35" r:id="rId14"/>
-    <hyperlink ref="H36" r:id="rId15"/>
-    <hyperlink ref="H37" r:id="rId16"/>
-    <hyperlink ref="H38" r:id="rId17"/>
-    <hyperlink ref="H39" r:id="rId18"/>
-    <hyperlink ref="H41" r:id="rId19"/>
-    <hyperlink ref="H43" r:id="rId20"/>
-    <hyperlink ref="H44" r:id="rId21"/>
-    <hyperlink ref="H46" r:id="rId22"/>
-    <hyperlink ref="H12" r:id="rId23"/>
-    <hyperlink ref="H14" r:id="rId24"/>
-    <hyperlink ref="H40" r:id="rId25"/>
-    <hyperlink ref="H22" r:id="rId26"/>
+    <hyperlink ref="H12" r:id="rId5"/>
+    <hyperlink ref="H14" r:id="rId6"/>
+    <hyperlink ref="H16" r:id="rId7"/>
+    <hyperlink ref="H24" r:id="rId8"/>
+    <hyperlink ref="H30" r:id="rId9"/>
+    <hyperlink ref="H31" r:id="rId10"/>
+    <hyperlink ref="H32" r:id="rId11"/>
+    <hyperlink ref="H33" r:id="rId12"/>
+    <hyperlink ref="H35" r:id="rId13"/>
+    <hyperlink ref="H36" r:id="rId14"/>
+    <hyperlink ref="H37" r:id="rId15"/>
+    <hyperlink ref="H38" r:id="rId16"/>
+    <hyperlink ref="H39" r:id="rId17"/>
+    <hyperlink ref="H40" r:id="rId18"/>
+    <hyperlink ref="H42" r:id="rId19"/>
+    <hyperlink ref="H44" r:id="rId20"/>
+    <hyperlink ref="H45" r:id="rId21"/>
+    <hyperlink ref="H47" r:id="rId22"/>
+    <hyperlink ref="H13" r:id="rId23"/>
+    <hyperlink ref="H15" r:id="rId24"/>
+    <hyperlink ref="H41" r:id="rId25"/>
+    <hyperlink ref="H23" r:id="rId26"/>
     <hyperlink ref="H10" r:id="rId27"/>
-    <hyperlink ref="H33" r:id="rId28"/>
+    <hyperlink ref="H34" r:id="rId28"/>
+    <hyperlink ref="H9" r:id="rId29"/>
+    <hyperlink ref="H11" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
